--- a/[Sem5]/Sieci Komputerowe/Akronimy stosowane w sieciach komputerowych.xlsx
+++ b/[Sem5]/Sieci Komputerowe/Akronimy stosowane w sieciach komputerowych.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>MTU</t>
   </si>
@@ -178,6 +178,33 @@
   </si>
   <si>
     <t>Data Comunication Equipment</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>Dynamic Trunking Protocol</t>
+  </si>
+  <si>
+    <t>NPDU</t>
+  </si>
+  <si>
+    <t>Network Protocol Data Unit</t>
+  </si>
+  <si>
+    <t>Jednostka danych dla wartstwy 3 OSI</t>
+  </si>
+  <si>
+    <t>MDI-</t>
+  </si>
+  <si>
+    <t>Medium Dependent Interface CrossOver</t>
+  </si>
+  <si>
+    <t>FCS</t>
+  </si>
+  <si>
+    <t>Frame Check Sequence</t>
   </si>
 </sst>
 </file>
@@ -525,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,7 +692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -673,7 +700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -681,7 +708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -689,7 +716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -697,7 +724,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -705,7 +732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -713,7 +740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -721,7 +748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -729,7 +756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -737,7 +764,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -745,12 +772,47 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
